--- a/example/Builder/Tables/GameDB.xlsx
+++ b/example/Builder/Tables/GameDB.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Devwinsoft\devarc\example\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Devwinsoft\devarc\example\Builder\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BDC828-899E-4184-B2FE-79E997A498F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1ED8D-9E37-401E-9566-E8188E778439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Character" sheetId="1" r:id="rId1"/>
+    <sheet name="CHARACTER" sheetId="1" r:id="rId1"/>
+    <sheet name="SKILL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>charName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,6 +92,66 @@
   </si>
   <si>
     <t>Male</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E1AEE7-F4DE-4E91-91DE-1DBDA9BA8502}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -507,30 +566,129 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401DA0E-6D94-4657-8FD9-3F778EFEE5A9}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -538,42 +696,46 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+      <c r="D5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" t="s">
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
